--- a/TestsSaveExcel/ModelResult.xlsx
+++ b/TestsSaveExcel/ModelResult.xlsx
@@ -103,6 +103,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -353,14 +356,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -379,7 +376,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -391,80 +387,123 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -768,7 +807,7 @@
   <dimension ref="A1:R34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26:L26"/>
+      <selection activeCell="A13" sqref="A13:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -789,73 +828,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4"/>
+      <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4"/>
+      <c r="B7" s="2"/>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B10" t="s">
@@ -864,341 +903,341 @@
     </row>
     <row r="11" spans="1:18" ht="15.75" thickBot="1"/>
     <row r="12" spans="1:18">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="11"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="12"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="36"/>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="18"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="20"/>
+      <c r="A14" s="50"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="38"/>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" s="11"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="12"/>
+      <c r="A15" s="48"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="36"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="18"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="20"/>
+      <c r="A16" s="50"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="38"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="11"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="12"/>
+      <c r="A17" s="48"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="36"/>
     </row>
     <row r="18" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A18" s="21"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="23"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="44"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="4"/>
+      <c r="B20" s="2"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="4"/>
+      <c r="B21" s="2"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="4"/>
+      <c r="B22" s="2"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
     </row>
     <row r="25" spans="1:12" ht="15.75" thickBot="1"/>
     <row r="26" spans="1:12">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25" t="s">
+      <c r="D26" s="30"/>
+      <c r="E26" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25" t="s">
+      <c r="F26" s="30"/>
+      <c r="G26" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="26"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="41" t="s">
+      <c r="H26" s="32"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="K26" s="37"/>
-      <c r="L26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="34"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="27"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="17" t="s">
+      <c r="A27" s="29"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="17" t="s">
+      <c r="E27" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="17" t="s">
+      <c r="F27" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G27" s="17" t="s">
+      <c r="G27" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H27" s="28" t="s">
+      <c r="H27" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="I27" s="9"/>
-      <c r="J27" s="38" t="s">
+      <c r="I27" s="7"/>
+      <c r="J27" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="K27" s="39" t="s">
+      <c r="K27" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="L27" s="40" t="s">
+      <c r="L27" s="24" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="29"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="34">
+      <c r="A28" s="46"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="19">
         <f t="shared" ref="J28:L33" si="0">F13</f>
         <v>0</v>
       </c>
-      <c r="K28" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L28" s="12">
+      <c r="K28" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="29"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K29" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L29" s="20">
+      <c r="A29" s="46"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="29"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L30" s="12">
+      <c r="A30" s="46"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="29"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K31" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L31" s="20">
+      <c r="A31" s="46"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="29"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K32" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L32" s="12">
+      <c r="A32" s="46"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="29"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K33" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L33" s="20">
+      <c r="A33" s="46"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A34" s="30"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="36">
+      <c r="A34" s="47"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="21">
         <f>B20</f>
         <v>0</v>
       </c>
-      <c r="K34" s="31">
+      <c r="K34" s="17">
         <f>B21</f>
         <v>0</v>
       </c>
-      <c r="L34" s="32">
+      <c r="L34" s="18">
         <f>B22</f>
         <v>0</v>
       </c>

--- a/TestsSaveExcel/ModelResult.xlsx
+++ b/TestsSaveExcel/ModelResult.xlsx
@@ -103,8 +103,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="h:mm:ss;@"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -356,7 +357,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -427,6 +428,54 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -454,56 +503,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -807,19 +820,19 @@
   <dimension ref="A1:R34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:E18"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" customWidth="1"/>
+    <col min="1" max="1" width="32.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" customWidth="1"/>
     <col min="4" max="4" width="4.7109375" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" customWidth="1"/>
+    <col min="8" max="8" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="1.42578125" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
     <col min="11" max="11" width="7.42578125" customWidth="1"/>
@@ -828,20 +841,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
+      <c r="A1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
@@ -865,13 +878,13 @@
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="57"/>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="56"/>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="3"/>
@@ -929,64 +942,66 @@
       </c>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="48"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="36"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="53">
+        <v>29.63</v>
+      </c>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="50"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="38"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="54"/>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" s="48"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="36"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="53"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="50"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="38"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="54"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="48"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="36"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="53"/>
     </row>
     <row r="18" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A18" s="52"/>
-      <c r="B18" s="53"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="44"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="55"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
@@ -1007,51 +1022,51 @@
       <c r="B22" s="2"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="27" t="s">
+      <c r="A24" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="45"/>
     </row>
     <row r="25" spans="1:12" ht="15.75" thickBot="1"/>
     <row r="26" spans="1:12">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30" t="s">
+      <c r="D26" s="48"/>
+      <c r="E26" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30" t="s">
+      <c r="F26" s="48"/>
+      <c r="G26" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="32"/>
+      <c r="H26" s="50"/>
       <c r="I26" s="5"/>
       <c r="J26" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="K26" s="33"/>
-      <c r="L26" s="34"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="52"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="29"/>
-      <c r="B27" s="31"/>
+      <c r="A27" s="47"/>
+      <c r="B27" s="49"/>
       <c r="C27" s="13" t="s">
         <v>22</v>
       </c>
@@ -1082,14 +1097,14 @@
       </c>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="46"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="36"/>
+      <c r="A28" s="42"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="27"/>
       <c r="I28" s="7"/>
       <c r="J28" s="19">
         <f t="shared" ref="J28:L33" si="0">F13</f>
@@ -1101,18 +1116,18 @@
       </c>
       <c r="L28" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>29.63</v>
       </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="46"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="38"/>
+      <c r="A29" s="42"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="29"/>
       <c r="I29" s="7"/>
       <c r="J29" s="20">
         <f t="shared" si="0"/>
@@ -1128,14 +1143,14 @@
       </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="46"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="36"/>
+      <c r="A30" s="42"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="27"/>
       <c r="I30" s="7"/>
       <c r="J30" s="19">
         <f t="shared" si="0"/>
@@ -1151,14 +1166,14 @@
       </c>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="46"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="38"/>
+      <c r="A31" s="42"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="29"/>
       <c r="I31" s="7"/>
       <c r="J31" s="20">
         <f t="shared" si="0"/>
@@ -1174,14 +1189,14 @@
       </c>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="46"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="36"/>
+      <c r="A32" s="42"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="27"/>
       <c r="I32" s="7"/>
       <c r="J32" s="19">
         <f t="shared" si="0"/>
@@ -1197,14 +1212,14 @@
       </c>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="46"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="38"/>
+      <c r="A33" s="42"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="29"/>
       <c r="I33" s="7"/>
       <c r="J33" s="20">
         <f t="shared" si="0"/>
@@ -1220,14 +1235,14 @@
       </c>
     </row>
     <row r="34" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A34" s="47"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="40"/>
+      <c r="A34" s="43"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="31"/>
       <c r="I34" s="8"/>
       <c r="J34" s="21">
         <f>B20</f>
@@ -1255,6 +1270,6 @@
     <mergeCell ref="K26:L26"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TestsSaveExcel/ModelResult.xlsx
+++ b/TestsSaveExcel/ModelResult.xlsx
@@ -31,19 +31,19 @@
     <t xml:space="preserve">Genre :</t>
   </si>
   <si>
+    <t xml:space="preserve">Date de naissance :</t>
+  </si>
+  <si>
     <t xml:space="preserve">Age :</t>
   </si>
   <si>
-    <t xml:space="preserve">Date :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heure :</t>
+    <t xml:space="preserve">Date du jour :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heure du jour :</t>
   </si>
   <si>
     <t xml:space="preserve">Test :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Normal</t>
   </si>
   <si>
     <t xml:space="preserve">Essai</t>
@@ -104,14 +104,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
-    <numFmt numFmtId="166" formatCode="H:MM:SS;@"/>
-    <numFmt numFmtId="167" formatCode="@"/>
-    <numFmt numFmtId="168" formatCode="0"/>
-    <numFmt numFmtId="169" formatCode="0.00"/>
-    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="0"/>
+    <numFmt numFmtId="167" formatCode="0.00"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -169,8 +167,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCC6600"/>
-        <bgColor rgb="FF808000"/>
+        <fgColor rgb="FF77BC65"/>
+        <bgColor rgb="FFB2B2B2"/>
       </patternFill>
     </fill>
     <fill>
@@ -192,7 +190,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="26">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -219,27 +217,6 @@
       <right style="hair"/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="dashed"/>
-      <right/>
-      <top/>
-      <bottom style="dashed"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="dashed"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="dashed"/>
-      <top/>
-      <bottom style="dashed"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -422,7 +399,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="65">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -459,14 +436,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -475,18 +444,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -495,67 +452,67 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="5" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="5" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="5" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -563,19 +520,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -583,47 +540,47 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -631,47 +588,47 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="5" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -679,27 +636,27 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="26" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="23" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="27" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="24" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="28" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="25" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -756,10 +713,10 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF77BC65"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFCC6600"/>
+      <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FFB2B2B2"/>
       <rgbColor rgb="FF003366"/>
@@ -780,10 +737,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R36"/>
+  <dimension ref="A1:R1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H:H"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -795,11 +752,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="1.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="7.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="7.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="7.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="8.71"/>
   </cols>
   <sheetData>
@@ -890,89 +847,89 @@
       <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="13"/>
+      <c r="A8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
       <c r="M9" s="4"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2"/>
@@ -990,28 +947,28 @@
       <c r="M11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="20" t="s">
+      <c r="H12" s="15" t="s">
         <v>15</v>
       </c>
       <c r="I12" s="3"/>
@@ -1021,14 +978,14 @@
       <c r="M12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="21"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="24"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="19"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -1036,14 +993,14 @@
       <c r="M13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="25"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="29"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="24"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -1051,14 +1008,14 @@
       <c r="M14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="21"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="24"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="19"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -1066,14 +1023,14 @@
       <c r="M15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="25"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="29"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="24"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -1081,14 +1038,14 @@
       <c r="M16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="21"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="24"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="19"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -1096,14 +1053,14 @@
       <c r="M17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="30"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="33"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="28"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -1126,7 +1083,7 @@
       <c r="M19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="6"/>
@@ -1160,7 +1117,7 @@
       <c r="M21" s="8"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="29" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="6"/>
@@ -1192,21 +1149,21 @@
       <c r="M23" s="4"/>
     </row>
     <row r="24" customFormat="false" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2"/>
@@ -1224,257 +1181,259 @@
       <c r="M25" s="4"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="36" t="s">
+      <c r="A26" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="37" t="s">
+      <c r="C26" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37" t="s">
+      <c r="D26" s="32"/>
+      <c r="E26" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="F26" s="37"/>
-      <c r="G26" s="38" t="s">
+      <c r="F26" s="32"/>
+      <c r="G26" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="38"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="40" t="s">
+      <c r="H26" s="33"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
       <c r="M26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="36"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="42" t="s">
+      <c r="A27" s="31"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="42" t="s">
+      <c r="D27" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="E27" s="42" t="s">
+      <c r="E27" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="42" t="s">
+      <c r="F27" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="G27" s="42" t="s">
+      <c r="G27" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="H27" s="43" t="s">
+      <c r="H27" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="I27" s="44"/>
-      <c r="J27" s="45" t="s">
+      <c r="I27" s="39"/>
+      <c r="J27" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="K27" s="46" t="s">
+      <c r="K27" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="L27" s="47" t="s">
+      <c r="L27" s="42" t="s">
         <v>15</v>
       </c>
       <c r="M27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="48"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="52" t="n">
+      <c r="A28" s="43"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="47" t="n">
         <f aca="false">F13</f>
         <v>0</v>
       </c>
-      <c r="K28" s="53" t="n">
+      <c r="K28" s="48" t="n">
         <f aca="false">G13</f>
         <v>0</v>
       </c>
-      <c r="L28" s="54" t="n">
+      <c r="L28" s="49" t="n">
         <f aca="false">H13</f>
         <v>0</v>
       </c>
       <c r="M28" s="4"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="48"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="57" t="n">
+      <c r="A29" s="43"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="52" t="n">
         <f aca="false">F14</f>
         <v>0</v>
       </c>
-      <c r="K29" s="58" t="n">
+      <c r="K29" s="53" t="n">
         <f aca="false">G14</f>
         <v>0</v>
       </c>
-      <c r="L29" s="59" t="n">
+      <c r="L29" s="54" t="n">
         <f aca="false">H14</f>
         <v>0</v>
       </c>
       <c r="M29" s="4"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="48"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="52" t="n">
+      <c r="A30" s="43"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="47" t="n">
         <f aca="false">F15</f>
         <v>0</v>
       </c>
-      <c r="K30" s="53" t="n">
+      <c r="K30" s="48" t="n">
         <f aca="false">G15</f>
         <v>0</v>
       </c>
-      <c r="L30" s="54" t="n">
+      <c r="L30" s="49" t="n">
         <f aca="false">H15</f>
         <v>0</v>
       </c>
       <c r="M30" s="4"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="48"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="57" t="n">
+      <c r="A31" s="43"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="52" t="n">
         <f aca="false">F16</f>
         <v>0</v>
       </c>
-      <c r="K31" s="58" t="n">
+      <c r="K31" s="53" t="n">
         <f aca="false">G16</f>
         <v>0</v>
       </c>
-      <c r="L31" s="59" t="n">
+      <c r="L31" s="54" t="n">
         <f aca="false">H16</f>
         <v>0</v>
       </c>
       <c r="M31" s="4"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="48"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="51"/>
-      <c r="J32" s="52" t="n">
+      <c r="A32" s="43"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="47" t="n">
         <f aca="false">F17</f>
         <v>0</v>
       </c>
-      <c r="K32" s="53" t="n">
+      <c r="K32" s="48" t="n">
         <f aca="false">G17</f>
         <v>0</v>
       </c>
-      <c r="L32" s="54" t="n">
+      <c r="L32" s="49" t="n">
         <f aca="false">H17</f>
         <v>0</v>
       </c>
       <c r="M32" s="4"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="48"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="51"/>
-      <c r="J33" s="57" t="n">
+      <c r="A33" s="43"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="52" t="n">
         <f aca="false">F18</f>
         <v>0</v>
       </c>
-      <c r="K33" s="58" t="n">
+      <c r="K33" s="53" t="n">
         <f aca="false">G18</f>
         <v>0</v>
       </c>
-      <c r="L33" s="59" t="n">
+      <c r="L33" s="54" t="n">
         <f aca="false">H18</f>
         <v>0</v>
       </c>
       <c r="M33" s="4"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="48"/>
-      <c r="B34" s="60"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="63"/>
-      <c r="J34" s="64" t="n">
+      <c r="A34" s="43"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="58"/>
+      <c r="J34" s="59" t="n">
         <f aca="false">B20</f>
         <v>0</v>
       </c>
-      <c r="K34" s="65" t="n">
+      <c r="K34" s="60" t="n">
         <f aca="false">B21</f>
         <v>0</v>
       </c>
-      <c r="L34" s="66" t="n">
+      <c r="L34" s="61" t="n">
         <f aca="false">B22</f>
         <v>0</v>
       </c>
       <c r="M34" s="4"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="67"/>
-      <c r="B35" s="68"/>
-      <c r="C35" s="68"/>
-      <c r="D35" s="68"/>
-      <c r="E35" s="68"/>
-      <c r="F35" s="68"/>
-      <c r="G35" s="68"/>
-      <c r="H35" s="68"/>
-      <c r="I35" s="68"/>
-      <c r="J35" s="68"/>
-      <c r="K35" s="68"/>
-      <c r="L35" s="68"/>
-      <c r="M35" s="69"/>
+      <c r="A35" s="62"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="63"/>
+      <c r="J35" s="63"/>
+      <c r="K35" s="63"/>
+      <c r="L35" s="63"/>
+      <c r="M35" s="64"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="19">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="B3:M3"/>
     <mergeCell ref="B4:M4"/>
     <mergeCell ref="B5:M5"/>
     <mergeCell ref="B6:M6"/>
     <mergeCell ref="B7:M7"/>
+    <mergeCell ref="B8:M8"/>
     <mergeCell ref="B10:M10"/>
     <mergeCell ref="B20:M20"/>
     <mergeCell ref="B21:M21"/>
